--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value143.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value143.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9442554122762907</v>
+        <v>1.12579619884491</v>
       </c>
       <c r="B1">
-        <v>1.845843682797062</v>
+        <v>1.118985891342163</v>
       </c>
       <c r="C1">
-        <v>3.008984401890071</v>
+        <v>5.23612117767334</v>
       </c>
       <c r="D1">
-        <v>2.53525068114191</v>
+        <v>2.122360706329346</v>
       </c>
       <c r="E1">
-        <v>1.007709295926332</v>
+        <v>1.201128840446472</v>
       </c>
     </row>
   </sheetData>
